--- a/data_year/zb/卫生/各类医疗卫生机构医疗服务及床位利用/各类医疗卫生机构实际开放总床日数.xlsx
+++ b/data_year/zb/卫生/各类医疗卫生机构医疗服务及床位利用/各类医疗卫生机构实际开放总床日数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U12"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1172,59 +1172,120 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.02095839</v>
+        <v>102095839</v>
       </c>
       <c r="C12" t="n">
-        <v>4.25604368</v>
+        <v>425604368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.14569041</v>
+        <v>14569041</v>
       </c>
       <c r="E12" t="n">
-        <v>3.42792219</v>
+        <v>342792219</v>
       </c>
       <c r="F12" t="n">
-        <v>0.42425631</v>
+        <v>42425631</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>4.80690099</v>
+        <v>480690099</v>
       </c>
       <c r="I12" t="n">
-        <v>0.07574980000000001</v>
+        <v>7574980</v>
       </c>
       <c r="J12" t="n">
-        <v>24.80282124</v>
+        <v>2480282124</v>
       </c>
       <c r="K12" t="n">
-        <v>4.85012261</v>
+        <v>485012261</v>
       </c>
       <c r="L12" t="n">
-        <v>31.51911008</v>
+        <v>3151911008</v>
       </c>
       <c r="M12" t="n">
-        <v>5.61958065</v>
+        <v>561958065</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8752679799999999</v>
+        <v>87526798</v>
       </c>
       <c r="O12" t="n">
-        <v>0.30639227</v>
+        <v>30639227</v>
       </c>
       <c r="P12" t="n">
-        <v>0.14181667</v>
+        <v>14181667</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>0.76867754</v>
+        <v>76867754</v>
       </c>
       <c r="S12" t="n">
-        <v>16.24639012</v>
+        <v>1624639012</v>
       </c>
       <c r="T12" t="n">
-        <v>0.04322162</v>
+        <v>4322162</v>
       </c>
       <c r="U12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>103937568</v>
+      </c>
+      <c r="C13" t="n">
+        <v>470520014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13973004</v>
+      </c>
+      <c r="E13" t="n">
+        <v>357780502</v>
+      </c>
+      <c r="F13" t="n">
+        <v>45075872</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>483034115</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6747453</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2574121355</v>
+      </c>
+      <c r="K13" t="n">
+        <v>487242918</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3252812722</v>
+      </c>
+      <c r="M13" t="n">
+        <v>568006346</v>
+      </c>
+      <c r="N13" t="n">
+        <v>89964564</v>
+      </c>
+      <c r="O13" t="n">
+        <v>35697495</v>
+      </c>
+      <c r="P13" t="n">
+        <v>14115371</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>80540558</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1650932101</v>
+      </c>
+      <c r="T13" t="n">
+        <v>4208803</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
